--- a/results/qt_r_K_10_netflix.xlsx
+++ b/results/qt_r_K_10_netflix.xlsx
@@ -94,6 +94,1739 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-HK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Query-Time VS. Recall (netflix K=10)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_10_netflix!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>qt(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_10_netflix!$I$2:$I$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0.618766666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.663366666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.683866666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6723</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.656233333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6461</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.661066666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.755366666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.727166666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.683666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.723933333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.702366666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.716433333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.699833333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.685766666666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7389</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.719566666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.712533333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.698533333333333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.726733333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.718966666666667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.694866666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.711333333333333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.6865</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.683333333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.692766666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7112</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.744066666666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7055</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.7118</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.7047</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.709133333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.708266666666667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7198</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.712866666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7088</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.790433333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.737466666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.696333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.7247</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.709166666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.7008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.702766666666667</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.715933333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.702533333333333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.700033333333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.706633333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.698466666666667</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.702733333333333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.715266666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.695033333333333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.7467</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.705033333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.714966666666667</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.719566666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.709</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.721233333333333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.687066666666666</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.7284</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.717333333333333</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.6882</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.7036</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.695466666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.713633333333333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.711133333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.742333333333333</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.766133333333333</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.716666666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.7211</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.718766666666667</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.754533333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.794466666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.7187</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.696233333333333</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.7142</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.6995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.700366666666667</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.7155</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.687433333333333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.693</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.730066666666667</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.704766666666667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.725633333333333</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.7667</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.6953</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.731966666666667</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8181</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.7295</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.730866666666667</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.803233333333333</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.748833333333333</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.711533333333333</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.733133333333333</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.753633333333333</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.7491</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.760366666666667</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.764933333333333</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.731066666666667</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.7361</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.6877</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.6899</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.818833333333333</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.7913</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.725166666666667</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.771733333333333</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.7285</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.7481</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.6898</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.727133333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_10_netflix!$J$2:$J$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.213333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.213333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.243333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.263333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.293333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.296666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.296666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.313333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.363333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.396666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.423333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.413333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.446666666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.426666666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.473333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.483333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.473333333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.493333333333333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.523333333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.513333333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.446666666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.506666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.556666666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.536666666666667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.576666666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.543333333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.586666666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.576666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.613333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.586666666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.516666666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.523333333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.543333333333333</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.586666666666667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.576666666666667</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.523333333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.593333333333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.473333333333333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.586666666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.513333333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.536666666666667</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.593333333333333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.566666666666667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.596666666666667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.376666666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.573333333333333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.596666666666667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.523333333333333</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.513333333333333</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.613333333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.456666666666667</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.686666666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.513333333333333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.463333333333333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.423333333333333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.563333333333333</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.626666666666666</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.653333333333333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.463333333333333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.563333333333333</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.606666666666667</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.596666666666667</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.643333333333333</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.446666666666667</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.516666666666667</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.536666666666667</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.383333333333333</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.386666666666667</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.693333333333333</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.593333333333333</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.473333333333333</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.526666666666667</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1859156048"/>
+        <c:axId val="-1856587200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1859156048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1856587200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1856587200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Query-Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1859156048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4604,5 +6337,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>